--- a/docs/test.files/2016.05.03/meter.number.xlsx
+++ b/docs/test.files/2016.05.03/meter.number.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$46</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="25">
   <si>
     <t xml:space="preserve">insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', </t>
   </si>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -149,7 +149,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F1:F45"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -813,14 +813,14 @@
         <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>11110031185392</v>
+        <v>11110021120017</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f t="shared" ref="F17:F28" si="1">A17&amp;B17&amp;C17&amp;D17&amp;E17</f>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 17, '11110031185392', 7, 0, '6#undercore');</v>
+        <f t="shared" ref="F17:F18" si="1">A17&amp;B17&amp;C17&amp;D17&amp;E17</f>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 17, '11110021120017', 7, 0, '6#undercore');</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -834,14 +834,14 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>11110031185384</v>
+        <v>11110021120018</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 18, '11110031185384', 7, 0, '7#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 18, '11110021120018', 7, 0, '6#undercore');</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -855,14 +855,14 @@
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>11110031185397</v>
+        <v>11110031185392</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 19, '11110031185397', 7, 0, '8#undercore');</v>
+        <f t="shared" ref="F19:F30" si="2">A19&amp;B19&amp;C19&amp;D19&amp;E19</f>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 19, '11110031185392', 7, 0, '6#undercore');</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -876,14 +876,14 @@
         <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>11110031185395</v>
+        <v>11110031185384</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 20, '11110031185395', 7, 0, '9#undercore');</v>
+        <f t="shared" si="2"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 20, '11110031185384', 7, 0, '7#undercore');</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -897,14 +897,14 @@
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>11110031185373</v>
+        <v>11110031185397</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 21, '11110031185373', 7, 0, '10#undercore');</v>
+        <f t="shared" si="2"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 21, '11110031185397', 7, 0, '8#undercore');</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -918,14 +918,14 @@
         <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>11110031185387</v>
+        <v>11110031185395</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 22, '11110031185387', 7, 0, '11#undercore');</v>
+        <f t="shared" si="2"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 22, '11110031185395', 7, 0, '9#undercore');</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -939,14 +939,14 @@
         <v>1</v>
       </c>
       <c r="D23" s="2">
-        <v>11110031185368</v>
+        <v>11110031185373</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 23, '11110031185368', 7, 0, '11#undercore');</v>
+        <f t="shared" si="2"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 23, '11110031185373', 7, 0, '10#undercore');</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -960,14 +960,14 @@
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>11110031185391</v>
+        <v>11110031185387</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 24, '11110031185391', 7, 0, '11#undercore');</v>
+        <f t="shared" si="2"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 24, '11110031185387', 7, 0, '11#undercore');</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -981,14 +981,14 @@
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>11110031185369</v>
+        <v>11110031185368</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 25, '11110031185369', 7, 0, '11#undercore');</v>
+        <f t="shared" si="2"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 25, '11110031185368', 7, 0, '11#undercore');</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1002,14 +1002,14 @@
         <v>1</v>
       </c>
       <c r="D26" s="2">
-        <v>11110031185370</v>
+        <v>11110031185391</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 26, '11110031185370', 7, 0, '11#undercore');</v>
+        <f t="shared" si="2"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 26, '11110031185391', 7, 0, '11#undercore');</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1023,14 +1023,14 @@
         <v>1</v>
       </c>
       <c r="D27" s="2">
-        <v>11110031185377</v>
+        <v>11110031185369</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 27, '11110031185377', 7, 0, '11#undercore');</v>
+        <f t="shared" si="2"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 27, '11110031185369', 7, 0, '11#undercore');</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1044,14 +1044,14 @@
         <v>1</v>
       </c>
       <c r="D28" s="2">
-        <v>11110031185378</v>
+        <v>11110031185370</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 28, '11110031185378', 7, 0, '11#undercore');</v>
+        <f t="shared" si="2"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 28, '11110031185370', 7, 0, '11#undercore');</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1065,14 +1065,14 @@
         <v>1</v>
       </c>
       <c r="D29" s="2">
-        <v>11110031185393</v>
+        <v>11110031185377</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="3" t="str">
-        <f t="shared" ref="F29:F44" si="2">A29&amp;B29&amp;C29&amp;D29&amp;E29</f>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 29, '11110031185393', 7, 0, '12#undercore');</v>
+        <f t="shared" si="2"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 29, '11110031185377', 7, 0, '11#undercore');</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1086,14 +1086,14 @@
         <v>1</v>
       </c>
       <c r="D30" s="2">
-        <v>11110031185396</v>
+        <v>11110031185378</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F30" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 30, '11110031185396', 7, 0, '13#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 30, '11110031185378', 7, 0, '11#undercore');</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1107,14 +1107,14 @@
         <v>1</v>
       </c>
       <c r="D31" s="2">
-        <v>11110031185376</v>
+        <v>11110031185393</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 31, '11110031185376', 7, 0, '14#undercore');</v>
+        <f t="shared" ref="F31:F46" si="3">A31&amp;B31&amp;C31&amp;D31&amp;E31</f>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 31, '11110031185393', 7, 0, '12#undercore');</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1128,14 +1128,14 @@
         <v>1</v>
       </c>
       <c r="D32" s="2">
-        <v>11110031185389</v>
+        <v>11110031185396</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 32, '11110031185389', 7, 0, '15#undercore');</v>
+        <f t="shared" si="3"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 32, '11110031185396', 7, 0, '13#undercore');</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1149,14 +1149,14 @@
         <v>1</v>
       </c>
       <c r="D33" s="2">
-        <v>11110031185388</v>
+        <v>11110031185376</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 33, '11110031185388', 7, 0, '16#undercore');</v>
+        <f t="shared" si="3"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 33, '11110031185376', 7, 0, '14#undercore');</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1170,14 +1170,14 @@
         <v>1</v>
       </c>
       <c r="D34" s="2">
-        <v>11110031185394</v>
+        <v>11110031185389</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F34" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 34, '11110031185394', 7, 0, '17#undercore');</v>
+        <f t="shared" si="3"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 34, '11110031185389', 7, 0, '15#undercore');</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1191,17 +1191,17 @@
         <v>1</v>
       </c>
       <c r="D35" s="2">
-        <v>11110031185382</v>
+        <v>11110031185388</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F35" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 35, '11110031185382', 7, 0, '18#undercore');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 35, '11110031185388', 7, 0, '16#undercore');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>0</v>
       </c>
@@ -1212,17 +1212,17 @@
         <v>1</v>
       </c>
       <c r="D36" s="2">
-        <v>11110031185379</v>
+        <v>11110031185394</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F36" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 36, '11110031185379', 7, 0, '19#undercore');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 36, '11110031185394', 7, 0, '17#undercore');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>0</v>
       </c>
@@ -1233,17 +1233,17 @@
         <v>1</v>
       </c>
       <c r="D37" s="2">
-        <v>11110031185371</v>
+        <v>11110031185382</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F37" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 37, '11110031185371', 7, 0, '20#undercore');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 37, '11110031185382', 7, 0, '18#undercore');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>0</v>
       </c>
@@ -1254,17 +1254,17 @@
         <v>1</v>
       </c>
       <c r="D38" s="2">
-        <v>11110031185372</v>
+        <v>11110031185379</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F38" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 38, '11110031185372', 7, 0, '21#undercore');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 38, '11110031185379', 7, 0, '19#undercore');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>0</v>
       </c>
@@ -1275,17 +1275,17 @@
         <v>1</v>
       </c>
       <c r="D39" s="2">
-        <v>11110031185374</v>
+        <v>11110031185371</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F39" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 39, '11110031185374', 7, 0, '22#undercore');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 39, '11110031185371', 7, 0, '20#undercore');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>0</v>
       </c>
@@ -1296,17 +1296,17 @@
         <v>1</v>
       </c>
       <c r="D40" s="2">
-        <v>11110031185381</v>
+        <v>11110031185372</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F40" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 40, '11110031185381', 7, 0, '23#undercore');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 40, '11110031185372', 7, 0, '21#undercore');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>0</v>
       </c>
@@ -1317,17 +1317,17 @@
         <v>1</v>
       </c>
       <c r="D41" s="2">
-        <v>11110031185385</v>
+        <v>11110031185374</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F41" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 41, '11110031185385', 7, 0, '24#undercore');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 41, '11110031185374', 7, 0, '22#undercore');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>0</v>
       </c>
@@ -1338,17 +1338,17 @@
         <v>1</v>
       </c>
       <c r="D42" s="2">
-        <v>11110031185398</v>
+        <v>11110031185381</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F42" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 42, '11110031185398', 7, 0, '25#undercore');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 42, '11110031185381', 7, 0, '23#undercore');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>0</v>
       </c>
@@ -1359,17 +1359,17 @@
         <v>1</v>
       </c>
       <c r="D43" s="2">
-        <v>11110031185386</v>
+        <v>11110031185385</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F43" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 43, '11110031185386', 7, 0, '26#undercore');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 43, '11110031185385', 7, 0, '24#undercore');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>0</v>
       </c>
@@ -1380,14 +1380,14 @@
         <v>1</v>
       </c>
       <c r="D44" s="2">
-        <v>11110031185383</v>
+        <v>11110031185398</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F44" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 44, '11110031185383', 7, 0, '27#undercore');</v>
+        <f t="shared" si="3"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 44, '11110031185398', 7, 0, '25#undercore');</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1401,14 +1401,56 @@
         <v>1</v>
       </c>
       <c r="D45" s="2">
+        <v>11110031185386</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 45, '11110031185386', 7, 0, '26#undercore');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>11110031185383</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 46, '11110031185383', 7, 0, '27#undercore');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
         <v>11110031185375</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E47" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="3" t="str">
-        <f t="shared" ref="F45" si="3">A45&amp;B45&amp;C45&amp;D45&amp;E45</f>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 45, '11110031185375', 7, 0, '28#undercore');</v>
+      <c r="F47" s="3" t="str">
+        <f t="shared" ref="F47" si="4">A47&amp;B47&amp;C47&amp;D47&amp;E47</f>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 47, '11110031185375', 7, 0, '28#undercore');</v>
       </c>
     </row>
   </sheetData>

--- a/docs/test.files/2016.05.03/meter.number.xlsx
+++ b/docs/test.files/2016.05.03/meter.number.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$56</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="25">
   <si>
     <t xml:space="preserve">insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', </t>
   </si>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -855,14 +855,14 @@
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>11110031185392</v>
+        <v>11110021120019</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f t="shared" ref="F19:F30" si="2">A19&amp;B19&amp;C19&amp;D19&amp;E19</f>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 19, '11110031185392', 7, 0, '6#undercore');</v>
+        <f t="shared" ref="F19:F28" si="2">A19&amp;B19&amp;C19&amp;D19&amp;E19</f>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 19, '11110021120019', 7, 0, '6#undercore');</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -876,14 +876,14 @@
         <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>11110031185384</v>
+        <v>11110021120020</v>
       </c>
       <c r="E20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 20, '11110031185384', 7, 0, '7#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 20, '11110021120020', 7, 0, '6#undercore');</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -897,14 +897,14 @@
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>11110031185397</v>
+        <v>11110021120021</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 21, '11110031185397', 7, 0, '8#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 21, '11110021120021', 7, 0, '6#undercore');</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -918,14 +918,14 @@
         <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>11110031185395</v>
+        <v>11110021120022</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 22, '11110031185395', 7, 0, '9#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 22, '11110021120022', 7, 0, '6#undercore');</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -939,14 +939,14 @@
         <v>1</v>
       </c>
       <c r="D23" s="2">
-        <v>11110031185373</v>
+        <v>11110021120023</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 23, '11110031185373', 7, 0, '10#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 23, '11110021120023', 7, 0, '6#undercore');</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -960,14 +960,14 @@
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>11110031185387</v>
+        <v>11110021120024</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 24, '11110031185387', 7, 0, '11#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 24, '11110021120024', 7, 0, '6#undercore');</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -981,14 +981,14 @@
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>11110031185368</v>
+        <v>11110021120025</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 25, '11110031185368', 7, 0, '11#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 25, '11110021120025', 7, 0, '6#undercore');</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1002,14 +1002,14 @@
         <v>1</v>
       </c>
       <c r="D26" s="2">
-        <v>11110031185391</v>
+        <v>11110021120026</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 26, '11110031185391', 7, 0, '11#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 26, '11110021120026', 7, 0, '6#undercore');</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1023,14 +1023,14 @@
         <v>1</v>
       </c>
       <c r="D27" s="2">
-        <v>11110031185369</v>
+        <v>11110021120027</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 27, '11110031185369', 7, 0, '11#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 27, '11110021120027', 7, 0, '6#undercore');</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1044,14 +1044,14 @@
         <v>1</v>
       </c>
       <c r="D28" s="2">
-        <v>11110031185370</v>
+        <v>11110021120028</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 28, '11110031185370', 7, 0, '11#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 28, '11110021120028', 7, 0, '6#undercore');</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1065,14 +1065,14 @@
         <v>1</v>
       </c>
       <c r="D29" s="2">
-        <v>11110031185377</v>
+        <v>11110031185392</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 29, '11110031185377', 7, 0, '11#undercore');</v>
+        <f t="shared" ref="F29:F40" si="3">A29&amp;B29&amp;C29&amp;D29&amp;E29</f>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 29, '11110031185392', 7, 0, '6#undercore');</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1086,14 +1086,14 @@
         <v>1</v>
       </c>
       <c r="D30" s="2">
-        <v>11110031185378</v>
+        <v>11110031185384</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 30, '11110031185378', 7, 0, '11#undercore');</v>
+        <f t="shared" si="3"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 30, '11110031185384', 7, 0, '7#undercore');</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1107,14 +1107,14 @@
         <v>1</v>
       </c>
       <c r="D31" s="2">
-        <v>11110031185393</v>
+        <v>11110031185397</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F31" s="3" t="str">
-        <f t="shared" ref="F31:F46" si="3">A31&amp;B31&amp;C31&amp;D31&amp;E31</f>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 31, '11110031185393', 7, 0, '12#undercore');</v>
+        <f t="shared" si="3"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 31, '11110031185397', 7, 0, '8#undercore');</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1128,14 +1128,14 @@
         <v>1</v>
       </c>
       <c r="D32" s="2">
-        <v>11110031185396</v>
+        <v>11110031185395</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 32, '11110031185396', 7, 0, '13#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 32, '11110031185395', 7, 0, '9#undercore');</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1149,14 +1149,14 @@
         <v>1</v>
       </c>
       <c r="D33" s="2">
-        <v>11110031185376</v>
+        <v>11110031185373</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 33, '11110031185376', 7, 0, '14#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 33, '11110031185373', 7, 0, '10#undercore');</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1170,14 +1170,14 @@
         <v>1</v>
       </c>
       <c r="D34" s="2">
-        <v>11110031185389</v>
+        <v>11110031185387</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 34, '11110031185389', 7, 0, '15#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 34, '11110031185387', 7, 0, '11#undercore');</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1191,14 +1191,14 @@
         <v>1</v>
       </c>
       <c r="D35" s="2">
-        <v>11110031185388</v>
+        <v>11110031185368</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 35, '11110031185388', 7, 0, '16#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 35, '11110031185368', 7, 0, '11#undercore');</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1212,14 +1212,14 @@
         <v>1</v>
       </c>
       <c r="D36" s="2">
-        <v>11110031185394</v>
+        <v>11110031185391</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 36, '11110031185394', 7, 0, '17#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 36, '11110031185391', 7, 0, '11#undercore');</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1233,14 +1233,14 @@
         <v>1</v>
       </c>
       <c r="D37" s="2">
-        <v>11110031185382</v>
+        <v>11110031185369</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F37" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 37, '11110031185382', 7, 0, '18#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 37, '11110031185369', 7, 0, '11#undercore');</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1254,14 +1254,14 @@
         <v>1</v>
       </c>
       <c r="D38" s="2">
-        <v>11110031185379</v>
+        <v>11110031185370</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F38" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 38, '11110031185379', 7, 0, '19#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 38, '11110031185370', 7, 0, '11#undercore');</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1275,14 +1275,14 @@
         <v>1</v>
       </c>
       <c r="D39" s="2">
-        <v>11110031185371</v>
+        <v>11110031185377</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F39" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 39, '11110031185371', 7, 0, '20#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 39, '11110031185377', 7, 0, '11#undercore');</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1296,14 +1296,14 @@
         <v>1</v>
       </c>
       <c r="D40" s="2">
-        <v>11110031185372</v>
+        <v>11110031185378</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F40" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 40, '11110031185372', 7, 0, '21#undercore');</v>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 40, '11110031185378', 7, 0, '11#undercore');</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1317,14 +1317,14 @@
         <v>1</v>
       </c>
       <c r="D41" s="2">
-        <v>11110031185374</v>
+        <v>11110031185393</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F41" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 41, '11110031185374', 7, 0, '22#undercore');</v>
+        <f t="shared" ref="F41:F56" si="4">A41&amp;B41&amp;C41&amp;D41&amp;E41</f>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 41, '11110031185393', 7, 0, '12#undercore');</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1338,14 +1338,14 @@
         <v>1</v>
       </c>
       <c r="D42" s="2">
-        <v>11110031185381</v>
+        <v>11110031185396</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F42" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 42, '11110031185381', 7, 0, '23#undercore');</v>
+        <f t="shared" si="4"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 42, '11110031185396', 7, 0, '13#undercore');</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1359,14 +1359,14 @@
         <v>1</v>
       </c>
       <c r="D43" s="2">
-        <v>11110031185385</v>
+        <v>11110031185376</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F43" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 43, '11110031185385', 7, 0, '24#undercore');</v>
+        <f t="shared" si="4"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 43, '11110031185376', 7, 0, '14#undercore');</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1380,14 +1380,14 @@
         <v>1</v>
       </c>
       <c r="D44" s="2">
-        <v>11110031185398</v>
+        <v>11110031185389</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F44" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 44, '11110031185398', 7, 0, '25#undercore');</v>
+        <f t="shared" si="4"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 44, '11110031185389', 7, 0, '15#undercore');</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1401,14 +1401,14 @@
         <v>1</v>
       </c>
       <c r="D45" s="2">
-        <v>11110031185386</v>
+        <v>11110031185388</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F45" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 45, '11110031185386', 7, 0, '26#undercore');</v>
+        <f t="shared" si="4"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 45, '11110031185388', 7, 0, '16#undercore');</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1422,14 +1422,14 @@
         <v>1</v>
       </c>
       <c r="D46" s="2">
-        <v>11110031185383</v>
+        <v>11110031185394</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F46" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 46, '11110031185383', 7, 0, '27#undercore');</v>
+        <f t="shared" si="4"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 46, '11110031185394', 7, 0, '17#undercore');</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -1443,14 +1443,224 @@
         <v>1</v>
       </c>
       <c r="D47" s="2">
+        <v>11110031185382</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 47, '11110031185382', 7, 0, '18#undercore');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>11110031185379</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 48, '11110031185379', 7, 0, '19#undercore');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>11110031185371</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 49, '11110031185371', 7, 0, '20#undercore');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>11110031185372</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 50, '11110031185372', 7, 0, '21#undercore');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>11110031185374</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 51, '11110031185374', 7, 0, '22#undercore');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>11110031185381</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 52, '11110031185381', 7, 0, '23#undercore');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>11110031185385</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 53, '11110031185385', 7, 0, '24#undercore');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>54</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>11110031185398</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 54, '11110031185398', 7, 0, '25#undercore');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>55</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>11110031185386</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 55, '11110031185386', 7, 0, '26#undercore');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>56</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>11110031185383</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 56, '11110031185383', 7, 0, '27#undercore');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>57</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
         <v>11110031185375</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E57" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="3" t="str">
-        <f t="shared" ref="F47" si="4">A47&amp;B47&amp;C47&amp;D47&amp;E47</f>
-        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 47, '11110031185375', 7, 0, '28#undercore');</v>
+      <c r="F57" s="3" t="str">
+        <f t="shared" ref="F57" si="5">A57&amp;B57&amp;C57&amp;D57&amp;E57</f>
+        <v>insert into t_meter_info (f_meter_type, f_device_id, f_meter_address, f_meter_channel, f_meter_proto_type, f_install_pos)  values  ('20', 57, '11110031185375', 7, 0, '28#undercore');</v>
       </c>
     </row>
   </sheetData>
